--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_17.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_17.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N358"/>
+  <dimension ref="A1:N359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4661026000976562</v>
+        <v>0.0008709430694580078</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004991054534912109</v>
+        <v>0.0006918907165527344</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00881195068359375</v>
+        <v>0.009589195251464844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 3), (3, 4), (0, 4), (1, 3), (3, 2), (3, 0), (2, 0), (2, 3), (2, 2), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 3], [3, 4], [0, 4], [1, 3], [3, 2], [3, 0], [2, 0], [2, 3], [2, 2], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[(3, 3), (3, 4), (0, 4), (1, 4), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[3, 3], [3, 4], [0, 4], [1, 4], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[(3, 3), (3, 4), (0, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (2, 4)]</t>
+          <t>[[3, 3], [3, 4], [0, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>[(1, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (2, 4), (0, 4), (3, 4), (3, 1)]</t>
+          <t>[[1, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [2, 4], [0, 4], [3, 4], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[(1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (2, 4), (2, 0), (2, 2), (3, 3), (3, 4), (3, 1)]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [2, 4], [2, 0], [2, 2], [3, 3], [3, 4], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (1, 2), (0, 0), (1, 3), (1, 0), (2, 3), (3, 3), (2, 4), (2, 1), (0, 4), (2, 0), (1, 4), (0, 3), (2, 2), (3, 1)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [2, 3], [3, 3], [2, 4], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -3066,110 +3066,120 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>48</v>
+        <v>0.9970583477890556</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>290</v>
+        <v>48</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>6</v>
+        <v>290</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.5010230541229248</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.04389286041259766</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr">
+      <c r="B359" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
+      <c r="C359" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
+      <c r="D359" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E358" t="inlineStr">
+      <c r="E359" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F358" t="inlineStr">
+      <c r="F359" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G358" t="inlineStr">
+      <c r="G359" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
+      <c r="H359" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I358" t="inlineStr">
+      <c r="I359" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J358" t="inlineStr">
+      <c r="J359" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K358" t="inlineStr">
+      <c r="K359" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L358" t="inlineStr">
+      <c r="L359" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M358" t="inlineStr">
+      <c r="M359" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N358" t="inlineStr">
+      <c r="N359" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_17.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_17.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N359"/>
+  <dimension ref="A1:N361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0008709430694580078</v>
+        <v>0.001092195510864258</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006918907165527344</v>
+        <v>0.0003380775451660156</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009589195251464844</v>
+        <v>0.05370020866394043</v>
       </c>
     </row>
     <row r="8">
@@ -1837,11 +1837,6 @@
           <t>[15, 0]</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>[8, 4]</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -1898,11 +1893,6 @@
           <t>[15, 0]</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>[8, 4]</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -2110,1076 +2100,1090 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[12, [0, 3], [2, 0]]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[10, [2, 1], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>[5, [1, 0], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>[11, [2, 2], [2, 4]]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[2, [2, 3], [0, 2]]</t>
+          <t>[12, [0, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[8, [0, 0], [1, 3]]</t>
+          <t>[10, [2, 1], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>[5, [1, 0], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>[11, [2, 2], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[9, [1, 1], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>[4, [2, 0], [1, 0]]</t>
+          <t>[2, [2, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[7, [0, 1], [1, 2]]</t>
+          <t>[8, [0, 0], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[13, [2, 4], [2, 2]]</t>
+          <t>[9, [1, 1], [0, 4]]</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[6, [0, 2], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>[3, [1, 2], [1, 1]]</t>
+          <t>[4, [2, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[14, [0, 4], [3, 3]]</t>
+          <t>[7, [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[1, [1, 3], [0, 3]]</t>
+          <t>[13, [2, 4], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>[6, [0, 2], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>[3, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [2, 4], [2, 0], [2, 2], [3, 3], [3, 4], [3, 1]]</t>
+          <t>[14, [0, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[1, [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[[1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [2, 4], [2, 0], [2, 2], [3, 3], [3, 4], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[14, [3, 3], [0, 3]]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[5, [0, 0], [1, 3]]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[8, [1, 3], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>[2, [0, 2], [0, 1]]</t>
+          <t>[14, [3, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[10, [2, 3], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>[6, [0, 1], [1, 0]]</t>
+          <t>[5, [0, 0], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[13, [2, 2], [1, 4]]</t>
+          <t>[8, [1, 3], [3, 3]]</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>[4, [1, 0], [0, 0]]</t>
+          <t>[2, [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[0, [1, 4], [1, 1]]</t>
+          <t>[10, [2, 3], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>[6, [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[9, [0, 4], [2, 4]]</t>
+          <t>[13, [2, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>[4, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[11, [2, 4], [0, 4]]</t>
+          <t>[0, [1, 4], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[15, [3, 4], [2, 2]]</t>
+          <t>[9, [0, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[3, [1, 1], [1, 2]]</t>
+          <t>[11, [2, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[7, [1, 2], [2, 3]]</t>
+          <t>[15, [3, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>[1, [0, 3], [0, 2]]</t>
+          <t>[3, [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [2, 3], [3, 3], [2, 4], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
+          <t>[7, [1, 2], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[1, [0, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [1, 2], [0, 0], [1, 3], [1, 0], [2, 3], [3, 3], [2, 4], [2, 1], [0, 4], [2, 0], [1, 4], [0, 3], [2, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>[7, 9]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[7, 9]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[7, 9]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[6, 10]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[7, 9]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[6, 10]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>[6, 10]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>[5, 11]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[6, 10]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[5, 11]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[5, 11]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>[4, 12]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[5, 11]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[4, 12]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>[4, 12]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[3, 13]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[4, 12]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[3, 13]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[3, 13]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[2, 14]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[3, 13]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[2, 14]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>[1, 15]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>[0, 16]</t>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[1, 15]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[0, 16]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>[1, 15]</t>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[0, 16]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>0.2155824095170286</v>
+          <t>[1, 15]</t>
+        </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>76049.47802656346</v>
+          <t>[0, 16]</t>
+        </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>move_fidelity</t>
+          <t>Fidelity:</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.9970583477890556</v>
+        <v>0.2155814322123207</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>t_idle:</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>48</v>
+        <v>76056.27802656346</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>290</v>
+        <v>0.9970583477890556</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.04389286041259766</v>
+        <v>292</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.09646105766296387</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr">
+      <c r="B361" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
+      <c r="C361" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr">
+      <c r="D361" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E359" t="inlineStr">
+      <c r="E361" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F359" t="inlineStr">
+      <c r="F361" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G359" t="inlineStr">
+      <c r="G361" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
+      <c r="H361" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I359" t="inlineStr">
+      <c r="I361" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J359" t="inlineStr">
+      <c r="J361" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K359" t="inlineStr">
+      <c r="K361" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L359" t="inlineStr">
+      <c r="L361" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M359" t="inlineStr">
+      <c r="M361" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N359" t="inlineStr">
+      <c r="N361" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
